--- a/masterR/master-flow.xlsx
+++ b/masterR/master-flow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai\Downloads\main (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684777B-FD53-46E7-B3ED-210808C124EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C0950-7EF7-4DB1-BEBC-9E6498C73EFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{3B547815-16CF-4894-A741-D58B741B4DBA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="3" xr2:uid="{3B547815-16CF-4894-A741-D58B741B4DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="1-2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>鈷粉</t>
   </si>
@@ -42,9 +42,6 @@
     <t>鈷礦石及其精砂</t>
   </si>
   <si>
-    <t>鑌鈷及其他煉鈷之中間產品；未經塑性加工之鈷</t>
-  </si>
-  <si>
     <t>鋰離子電池</t>
   </si>
   <si>
@@ -54,15 +51,9 @@
     <t>鎳鎘蓄電池</t>
   </si>
   <si>
-    <t>氧化鈷（工業用氧化鈷在內）</t>
-  </si>
-  <si>
     <t>氫氧化鈷</t>
   </si>
   <si>
-    <t>醋酸鈷（乙酸鈷）</t>
-  </si>
-  <si>
     <t>鋁鎳鈷合金</t>
   </si>
   <si>
@@ -80,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汽機車</t>
   </si>
   <si>
@@ -91,23 +78,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外銷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再生(內銷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再生(外銷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛤1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛤2</t>
+    <t>觸媒(美琪瑪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105年/Kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧化鈷-工業用氧化鈷在內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋酸鈷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化學品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶瓷.釉料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚酯類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輪胎黏著劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藝術品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑌鈷及其他煉鈷之中間產品.未經塑性加工之鈷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生-內銷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生-外銷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,17 +198,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,79 +561,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95304856-8E46-4375-A49D-790C57AD569C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>105</v>
+      </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>27363.5</v>
+      </c>
+      <c r="F2">
+        <v>27363.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>773.5</v>
+      </c>
+      <c r="F3">
+        <v>773.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2369.5</v>
+      </c>
+      <c r="F4">
+        <v>2369.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>754438.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>754438.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>754438.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -593,42 +708,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7FEF72-192A-439D-9946-1529D1439EFB}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="B5:F6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>71311.845000000001</v>
@@ -643,12 +771,24 @@
         <v>1.3096043250696998</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28000.797600000002</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>71311.845000000001</v>
@@ -663,12 +803,24 @@
         <v>1.3096043250696998</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28000.797600000002</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>71311.845000000001</v>
@@ -683,50 +835,86 @@
         <v>1.3096043250696998</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28000.797600000002</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>31506.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7876.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -741,47 +929,306 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26831D8-1762-406E-BCF3-005443721876}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>105</v>
+      </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3.9288129752090994</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC853AEC-CDC6-471D-BADD-DF66A1CCC095}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -805,33 +1252,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>105</v>
+      </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.44597615100000004</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
